--- a/AAII_Financials/Quarterly/NREF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NREF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
   <si>
     <t>NREF</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,31 +665,32 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,13 +709,16 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>27000</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>3</v>
@@ -737,17 +741,20 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E9" s="3">
         <v>4000</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
@@ -766,13 +773,16 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>20600</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -795,8 +805,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,8 +821,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -837,8 +851,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,8 +883,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -895,8 +915,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,8 +947,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,17 +960,18 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E17" s="3">
         <v>4700</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,13 +990,16 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>19300</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>3</v>
@@ -992,8 +1022,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,13 +1038,14 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>3</v>
@@ -1034,8 +1068,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1063,8 +1100,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1092,17 +1132,20 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-22900</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,8 +1164,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1150,8 +1196,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,17 +1228,20 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-22900</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1208,17 +1260,20 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6400</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,8 +1292,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1324,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1356,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1388,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,13 +1420,16 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>3</v>
@@ -1382,17 +1452,20 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6400</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1484,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,17 +1516,20 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6400</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,22 +1548,25 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1585,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1601,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,17 +1615,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,8 +1645,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,8 +1677,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1616,8 +1709,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1645,8 +1741,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1674,8 +1773,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1703,17 +1805,20 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3857200</v>
+      </c>
+      <c r="E47" s="3">
         <v>2714000</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1732,8 +1837,11 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1761,8 +1869,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1790,8 +1901,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +1933,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,8 +1965,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1877,8 +1997,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,17 +2029,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3859300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2715300</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +2061,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2077,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,17 +2091,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1990,46 +2121,52 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>60100</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,8 +2185,11 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2077,17 +2217,20 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3459400</v>
+      </c>
+      <c r="E61" s="3">
         <v>2396300</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2106,8 +2249,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2135,8 +2281,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2313,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2345,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,17 +2377,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3773000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2632200</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2409,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2425,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2455,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,8 +2487,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,8 +2519,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,17 +2551,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7500</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2409,8 +2583,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2615,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2647,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,17 +2679,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>86300</v>
+      </c>
+      <c r="E76" s="3">
         <v>83100</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,8 +2711,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,22 +2743,25 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,17 +2780,20 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6400</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2812,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,8 +2828,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2659,8 +2858,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +2890,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +2922,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +2954,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +2986,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,17 +3018,20 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E89" s="3">
         <v>5100</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2833,8 +3050,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,8 +3066,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2875,8 +3096,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3128,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,17 +3160,20 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E94" s="3">
         <v>2700</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,8 +3192,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,17 +3208,18 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1200</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -3004,8 +3238,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3270,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3302,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,17 +3334,20 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7700</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3366,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3149,17 +3398,20 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>800</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,6 +3428,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NREF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NREF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
   <si>
     <t>NREF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,35 +665,36 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -712,17 +713,20 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E8" s="3">
         <v>27000</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
@@ -744,20 +748,23 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E9" s="3">
         <v>6400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4000</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -776,17 +783,20 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E10" s="3">
         <v>20600</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
@@ -808,8 +818,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -822,8 +835,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -854,8 +868,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -886,8 +903,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -918,8 +938,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -950,8 +973,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -961,20 +987,21 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4700</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
@@ -993,17 +1020,20 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E18" s="3">
         <v>19300</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1025,8 +1055,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1039,16 +1072,17 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1071,8 +1105,11 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1103,8 +1140,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1135,20 +1175,23 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E23" s="3">
         <v>19300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-22900</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1167,8 +1210,11 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1199,8 +1245,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1231,20 +1280,23 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E26" s="3">
         <v>19300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-22900</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,20 +1315,23 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E27" s="3">
         <v>5300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6400</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1295,8 +1350,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1327,8 +1385,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1359,8 +1420,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1391,8 +1455,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1423,16 +1490,19 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
+      <c r="E32" s="3">
+        <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1455,20 +1525,23 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E33" s="3">
         <v>5300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6400</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1487,8 +1560,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1519,20 +1595,23 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E35" s="3">
         <v>5300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6400</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1551,25 +1630,28 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1588,8 +1670,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1602,8 +1687,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1616,20 +1702,21 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,8 +1735,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1680,8 +1770,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1712,8 +1805,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1744,8 +1840,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1776,8 +1875,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1808,20 +1910,23 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6146900</v>
+      </c>
+      <c r="E47" s="3">
         <v>3857200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2714000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1840,8 +1945,11 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1872,8 +1980,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1904,8 +2015,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1936,8 +2050,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1968,8 +2085,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2000,8 +2120,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2032,20 +2155,23 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6165700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3859300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2715300</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2064,8 +2190,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2078,8 +2207,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2092,20 +2222,21 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,17 +2255,20 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>160200</v>
+      </c>
+      <c r="E58" s="3">
         <v>60100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2150,26 +2284,29 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,8 +2325,11 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2220,20 +2360,23 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5612900</v>
+      </c>
+      <c r="E61" s="3">
         <v>3459400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2396300</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2252,8 +2395,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2284,8 +2430,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2316,8 +2465,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2348,8 +2500,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2380,20 +2535,23 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6041800</v>
+      </c>
+      <c r="E66" s="3">
         <v>3773000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2632200</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2570,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2426,8 +2587,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2458,8 +2620,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2490,13 +2655,16 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>-8600</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -2522,8 +2690,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2554,20 +2725,23 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7500</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2586,8 +2760,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2618,8 +2795,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2650,8 +2830,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2682,20 +2865,23 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>132400</v>
+      </c>
+      <c r="E76" s="3">
         <v>86300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>83100</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2714,8 +2900,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2746,25 +2935,28 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2783,20 +2975,23 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E81" s="3">
         <v>5300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6400</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2815,8 +3010,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2829,8 +3027,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2861,8 +3060,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2893,8 +3095,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2925,8 +3130,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2957,8 +3165,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2989,8 +3200,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3021,20 +3235,23 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E89" s="3">
         <v>6800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5100</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3053,8 +3270,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3067,8 +3287,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3099,8 +3320,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3131,8 +3355,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3163,20 +3390,23 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-88700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-24100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2700</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3195,8 +3425,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3209,8 +3442,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3218,11 +3452,11 @@
         <v>-2100</v>
       </c>
       <c r="E96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1200</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -3241,8 +3475,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3273,8 +3510,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3305,8 +3545,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3337,20 +3580,23 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>96600</v>
+      </c>
+      <c r="E100" s="3">
         <v>18100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7700</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3369,8 +3615,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3401,20 +3650,23 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E102" s="3">
         <v>800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3431,6 +3683,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NREF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NREF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
   <si>
     <t>NREF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,39 +665,39 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -716,20 +716,23 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E8" s="3">
         <v>20500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>27000</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -751,23 +754,26 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E9" s="3">
         <v>7300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4000</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,20 +792,23 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E10" s="3">
         <v>13200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>20600</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -821,8 +830,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -836,8 +848,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,8 +884,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -906,8 +922,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -941,8 +960,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -976,8 +998,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -988,23 +1013,24 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E17" s="3">
         <v>9000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4700</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1023,20 +1049,23 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E18" s="3">
         <v>11500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>19300</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1058,8 +1087,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1073,8 +1105,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1084,8 +1117,8 @@
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1108,8 +1141,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1143,8 +1179,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1178,23 +1217,26 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E23" s="3">
         <v>11500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>19300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-22900</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1213,8 +1255,11 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1248,8 +1293,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1283,23 +1331,26 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E26" s="3">
         <v>11500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>19300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-22900</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1318,23 +1369,26 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E27" s="3">
         <v>2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6400</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1353,8 +1407,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1388,8 +1445,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1423,8 +1483,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1458,8 +1521,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1493,8 +1559,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1504,8 +1573,8 @@
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1528,23 +1597,26 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E33" s="3">
         <v>2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6400</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1563,8 +1635,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1598,23 +1673,26 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E35" s="3">
         <v>2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6400</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1633,28 +1711,31 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1673,8 +1754,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1688,8 +1772,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1703,23 +1788,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E41" s="3">
         <v>18000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1738,8 +1824,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1773,8 +1862,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1808,8 +1900,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1843,8 +1938,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1878,8 +1976,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1913,23 +2014,26 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6142100</v>
+      </c>
+      <c r="E47" s="3">
         <v>6146900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3857200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2714000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1948,8 +2052,11 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1983,8 +2090,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2018,8 +2128,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2053,8 +2166,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2088,31 +2204,34 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>3200</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2123,8 +2242,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2158,23 +2280,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6176300</v>
+      </c>
+      <c r="E54" s="3">
         <v>6165700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3859300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2715300</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,8 +2318,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2208,8 +2336,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2223,23 +2352,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2258,20 +2388,23 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>161500</v>
+      </c>
+      <c r="E58" s="3">
         <v>160200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>60100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,29 +2420,32 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2328,8 +2464,11 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2363,23 +2502,26 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5606800</v>
+      </c>
+      <c r="E61" s="3">
         <v>5612900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3459400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2396300</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2398,8 +2540,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2433,8 +2578,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2468,8 +2616,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2503,8 +2654,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2538,23 +2692,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6048100</v>
+      </c>
+      <c r="E66" s="3">
         <v>6041800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3773000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2632200</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2573,8 +2730,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2588,8 +2748,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2623,8 +2784,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2658,8 +2822,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2667,7 +2834,7 @@
         <v>-8600</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>-8600</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2693,8 +2860,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2728,23 +2898,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7500</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2763,8 +2936,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2798,8 +2974,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2833,8 +3012,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2868,23 +3050,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>136800</v>
+      </c>
+      <c r="E76" s="3">
         <v>132400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>86300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>83100</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2903,8 +3088,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2938,28 +3126,31 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2978,23 +3169,26 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E81" s="3">
         <v>2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6400</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3013,8 +3207,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3028,8 +3225,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3063,8 +3261,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3098,8 +3299,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3133,8 +3337,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3168,8 +3375,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3203,8 +3413,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3238,23 +3451,26 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E89" s="3">
         <v>9100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5100</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3273,8 +3489,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3288,8 +3507,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3323,8 +3543,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3358,8 +3581,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3393,23 +3619,26 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-88700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-24100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2700</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3428,8 +3657,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3443,23 +3675,24 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="E96" s="3">
         <v>-2100</v>
       </c>
       <c r="F96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-1200</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -3478,8 +3711,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3513,8 +3749,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3548,8 +3787,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3583,23 +3825,26 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="E100" s="3">
         <v>96600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>18100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7700</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3618,8 +3863,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3653,23 +3901,26 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E102" s="3">
         <v>17000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3686,6 +3937,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NREF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NREF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
   <si>
     <t>NREF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,43 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -719,23 +720,26 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E8" s="3">
         <v>35700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>27000</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -757,26 +761,29 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E9" s="3">
         <v>7900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4000</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -795,23 +802,26 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E10" s="3">
         <v>27800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>13200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>20600</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -833,8 +843,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -849,8 +862,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -887,8 +901,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -925,8 +942,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -963,8 +983,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1001,8 +1024,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1014,26 +1040,27 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4700</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1052,23 +1079,26 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E18" s="3">
         <v>26200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>19300</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1090,8 +1120,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1106,8 +1139,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1120,8 +1154,8 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1144,8 +1178,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1182,8 +1219,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1220,26 +1260,29 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E23" s="3">
         <v>26200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>11500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>19300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-22900</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1258,8 +1301,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1296,8 +1342,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1334,26 +1383,29 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E26" s="3">
         <v>26200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>11500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>19300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-22900</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1372,26 +1424,29 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E27" s="3">
         <v>9300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6400</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1410,8 +1465,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1448,8 +1506,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1486,8 +1547,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1524,8 +1588,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1562,8 +1629,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1576,8 +1646,8 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1600,26 +1670,29 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E33" s="3">
         <v>9300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6400</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1638,8 +1711,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1676,26 +1752,29 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E35" s="3">
         <v>9300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6400</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1714,31 +1793,34 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1757,8 +1839,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1773,8 +1858,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1789,26 +1875,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E41" s="3">
         <v>30200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>18000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1827,8 +1914,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1865,8 +1955,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1903,8 +1996,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1941,8 +2037,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1979,8 +2078,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2017,26 +2119,29 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5941300</v>
+      </c>
+      <c r="E47" s="3">
         <v>6142100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6146900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3857200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2714000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2055,8 +2160,11 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2093,8 +2201,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2131,8 +2242,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2169,8 +2283,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2207,17 +2324,20 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
         <v>3200</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2233,8 +2353,8 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2245,8 +2365,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2283,26 +2406,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5960200</v>
+      </c>
+      <c r="E54" s="3">
         <v>6176300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6165700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3859300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2715300</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2321,8 +2447,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2337,8 +2466,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2353,26 +2483,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2391,25 +2522,28 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>162200</v>
+      </c>
+      <c r="E58" s="3">
         <v>161500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>160200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>60100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2423,32 +2557,35 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2467,8 +2604,11 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2505,26 +2645,29 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5371500</v>
+      </c>
+      <c r="E61" s="3">
         <v>5606800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5612900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3459400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2396300</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2543,8 +2686,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2581,8 +2727,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2619,8 +2768,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2657,8 +2809,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2695,26 +2850,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5825800</v>
+      </c>
+      <c r="E66" s="3">
         <v>6048100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6041800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3773000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2632200</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2891,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2749,8 +2910,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2787,8 +2949,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2825,8 +2990,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2837,7 +3005,7 @@
         <v>-8600</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>-8600</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2863,8 +3031,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2901,26 +3072,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E72" s="3">
         <v>3500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7500</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2939,8 +3113,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2977,8 +3154,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3015,8 +3195,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3053,26 +3236,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>142900</v>
+      </c>
+      <c r="E76" s="3">
         <v>136800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>132400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>86300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>83100</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3091,8 +3277,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3129,31 +3318,34 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3172,26 +3364,29 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E81" s="3">
         <v>9300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6400</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3210,8 +3405,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3226,8 +3424,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3264,8 +3463,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3302,8 +3504,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3340,8 +3545,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3378,8 +3586,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3416,8 +3627,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3454,26 +3668,29 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E89" s="3">
         <v>11900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5100</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3492,8 +3709,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3508,8 +3728,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3546,8 +3767,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3584,8 +3808,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3622,25 +3849,28 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>71400</v>
+      </c>
+      <c r="E94" s="3">
         <v>41900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-88700</v>
       </c>
-      <c r="F94" s="3">
-        <v>-24100</v>
-      </c>
       <c r="G94" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-52300</v>
+      </c>
+      <c r="H94" s="3">
+        <v>30900</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3660,8 +3890,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3676,26 +3909,27 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-2100</v>
       </c>
       <c r="F96" s="3">
         <v>-2100</v>
       </c>
       <c r="G96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1200</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -3714,8 +3948,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3752,8 +3989,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3790,8 +4030,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3828,26 +4071,29 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-98500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-38200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>96600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>18100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7700</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3866,8 +4112,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3904,26 +4153,29 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E102" s="3">
         <v>15500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>17000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3940,6 +4192,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NREF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NREF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
   <si>
     <t>NREF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,47 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -723,26 +724,29 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E8" s="3">
         <v>35100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>35700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>27000</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -764,29 +768,32 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E9" s="3">
         <v>7800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4000</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -805,26 +812,29 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E10" s="3">
         <v>27300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>27800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>13200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>20600</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -846,8 +856,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -863,8 +876,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -904,8 +918,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -945,8 +962,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -986,8 +1006,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1027,8 +1050,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1041,29 +1067,30 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E17" s="3">
         <v>10000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4700</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1082,26 +1109,29 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E18" s="3">
         <v>25100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>26200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>11500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>19300</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,8 +1153,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1140,8 +1173,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1157,8 +1191,8 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1181,8 +1215,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1222,8 +1259,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1263,29 +1303,32 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E23" s="3">
         <v>25100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>26200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>11500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>19300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-22900</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,8 +1347,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1345,8 +1391,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1386,29 +1435,32 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E26" s="3">
         <v>25100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>26200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>11500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>19300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-22900</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1427,29 +1479,32 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E27" s="3">
         <v>8400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6400</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1468,8 +1523,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1509,8 +1567,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1550,8 +1611,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1591,8 +1655,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1632,8 +1699,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1649,8 +1719,8 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1673,29 +1743,32 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E33" s="3">
         <v>8400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6400</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1714,8 +1787,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1755,29 +1831,32 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E35" s="3">
         <v>8400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6400</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1796,34 +1875,37 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1842,8 +1924,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1859,8 +1944,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1876,29 +1962,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E41" s="3">
         <v>14900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>18000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1917,8 +2004,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1958,8 +2048,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1999,8 +2092,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2040,8 +2136,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2081,8 +2180,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2122,29 +2224,32 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8504000</v>
+      </c>
+      <c r="E47" s="3">
         <v>5941300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6142100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6146900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3857200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2714000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2163,8 +2268,11 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2204,8 +2312,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2245,8 +2356,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2286,8 +2400,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2327,20 +2444,23 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2356,8 +2476,8 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2368,8 +2488,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2409,29 +2532,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8536100</v>
+      </c>
+      <c r="E54" s="3">
         <v>5960200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6176300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6165700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3859300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2715300</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2450,8 +2576,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2467,8 +2596,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2484,29 +2614,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E57" s="3">
         <v>3800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,28 +2656,31 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>177600</v>
+      </c>
+      <c r="E58" s="3">
         <v>162200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>161500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>160200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>60100</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2560,35 +2694,38 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E59" s="3">
         <v>2800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2607,8 +2744,11 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2648,29 +2788,32 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7845600</v>
+      </c>
+      <c r="E61" s="3">
         <v>5371500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5606800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5612900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3459400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2396300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2689,8 +2832,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2730,8 +2876,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2771,8 +2920,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2812,8 +2964,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2853,29 +3008,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8391100</v>
+      </c>
+      <c r="E66" s="3">
         <v>5825800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6048100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6041800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3773000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2632200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2894,8 +3052,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2911,8 +3072,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2952,8 +3114,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2993,8 +3158,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3008,7 +3176,7 @@
         <v>-8600</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>-8600</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -3034,8 +3202,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3075,29 +3246,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E72" s="3">
         <v>9200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7500</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3116,8 +3290,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3157,8 +3334,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3198,8 +3378,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3239,29 +3422,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>153600</v>
+      </c>
+      <c r="E76" s="3">
         <v>142900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>136800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>132400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>86300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>83100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3280,8 +3466,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3321,34 +3510,37 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3367,29 +3559,32 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E81" s="3">
         <v>8400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6400</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3408,8 +3603,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3425,8 +3623,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3466,8 +3665,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3507,8 +3709,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3548,8 +3753,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3589,8 +3797,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3630,8 +3841,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3671,29 +3885,32 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E89" s="3">
         <v>9100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>11900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5100</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3712,8 +3929,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3729,8 +3949,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3770,8 +3991,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3811,8 +4035,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3852,29 +4079,32 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E94" s="3">
         <v>71400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>41900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-88700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-52300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>30900</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3893,8 +4123,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3910,29 +4143,30 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-2100</v>
       </c>
       <c r="G96" s="3">
         <v>-2100</v>
       </c>
       <c r="H96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1200</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -3951,8 +4185,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3992,8 +4229,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4033,8 +4273,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4074,29 +4317,32 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-98500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-38200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>96600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>18100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7700</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4115,8 +4361,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4156,29 +4405,32 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>17000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4195,6 +4447,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NREF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NREF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
   <si>
     <t>NREF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -727,29 +728,32 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E8" s="3">
         <v>23400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>35100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>35700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>27000</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -771,32 +775,35 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E9" s="3">
         <v>8900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4000</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -815,29 +822,32 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E10" s="3">
         <v>14500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>27300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>27800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>13200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20600</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -859,8 +869,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,8 +890,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -921,8 +935,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -965,8 +982,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1009,8 +1029,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1053,8 +1076,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1068,32 +1094,33 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E17" s="3">
         <v>11200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4700</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1112,29 +1139,32 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E18" s="3">
         <v>12200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>25100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>26200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>11500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>19300</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1156,8 +1186,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1174,8 +1207,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1194,8 +1228,8 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1218,8 +1252,11 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1262,8 +1299,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1306,32 +1346,35 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E23" s="3">
         <v>12300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>25100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>26200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>11500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>19300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-22900</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1350,8 +1393,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1394,8 +1440,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1438,32 +1487,35 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E26" s="3">
         <v>12300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>25100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>26200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>11500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>19300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-22900</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1482,32 +1534,35 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E27" s="3">
         <v>5500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6400</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1526,8 +1581,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1570,8 +1628,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1614,8 +1675,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1658,8 +1722,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1702,8 +1769,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1722,8 +1792,8 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1746,32 +1816,35 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E33" s="3">
         <v>5500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6400</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1790,8 +1863,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1834,32 +1910,35 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E35" s="3">
         <v>5500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6400</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1878,37 +1957,40 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1927,8 +2009,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1945,8 +2030,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1963,32 +2049,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E41" s="3">
         <v>30000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2007,8 +2094,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2051,31 +2141,34 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>6400</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2095,8 +2188,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2139,8 +2235,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2183,8 +2282,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2227,32 +2329,35 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8264300</v>
+      </c>
+      <c r="E47" s="3">
         <v>8504000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5941300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6142100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6146900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3857200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2714000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2271,8 +2376,11 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2315,8 +2423,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2359,8 +2470,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2403,8 +2517,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2447,23 +2564,26 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E52" s="3">
         <v>700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2479,8 +2599,8 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2491,8 +2611,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2535,32 +2658,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8296400</v>
+      </c>
+      <c r="E54" s="3">
         <v>8536100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5960200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6176300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6165700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3859300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2715300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2579,8 +2705,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2597,8 +2726,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2615,32 +2745,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2659,31 +2790,34 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>222500</v>
+      </c>
+      <c r="E58" s="3">
         <v>177600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>162200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>161500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>160200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>60100</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2697,38 +2831,41 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E59" s="3">
         <v>70800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2747,8 +2884,11 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2791,32 +2931,35 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7566200</v>
+      </c>
+      <c r="E61" s="3">
         <v>7845600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5371500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5606800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5612900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3459400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2396300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2835,8 +2978,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2879,8 +3025,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2923,8 +3072,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2967,8 +3119,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3011,32 +3166,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8066100</v>
+      </c>
+      <c r="E66" s="3">
         <v>8391100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5825800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6048100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6041800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3773000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2632200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3055,8 +3213,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3073,8 +3234,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3117,8 +3279,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3161,8 +3326,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3179,7 +3347,7 @@
         <v>-8600</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>-8600</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -3205,8 +3373,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3249,32 +3420,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E72" s="3">
         <v>12000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3293,8 +3467,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3337,8 +3514,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3381,8 +3561,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3425,32 +3608,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>238900</v>
+      </c>
+      <c r="E76" s="3">
         <v>153600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>142900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>136800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>132400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>86300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>83100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3469,8 +3655,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3513,37 +3702,40 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3562,32 +3754,35 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E81" s="3">
         <v>5500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6400</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3606,8 +3801,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3624,8 +3822,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3668,8 +3867,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3712,8 +3914,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3756,8 +3961,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3800,8 +4008,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3844,8 +4055,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3888,32 +4102,35 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E89" s="3">
         <v>13800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>11900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5100</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3932,8 +4149,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3950,8 +4170,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3994,8 +4215,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4038,8 +4262,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4082,32 +4309,35 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>151500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-26300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>71400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>41900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-88700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-52300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>30900</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4126,8 +4356,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4144,32 +4377,33 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-2100</v>
       </c>
       <c r="H96" s="3">
         <v>-2100</v>
       </c>
       <c r="I96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1200</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -4188,8 +4422,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4232,8 +4469,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4276,8 +4516,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4320,32 +4563,35 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-172000</v>
+      </c>
+      <c r="E100" s="3">
         <v>27800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-98500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-38200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>96600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>18100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7700</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4364,8 +4610,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4408,32 +4657,35 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E102" s="3">
         <v>15200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>17000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4450,6 +4702,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NREF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NREF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
   <si>
     <t>NREF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,54 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -731,32 +731,35 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E8" s="3">
         <v>36300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>23400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>35100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>35700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>27000</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -778,8 +781,11 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -787,26 +793,26 @@
         <v>9100</v>
       </c>
       <c r="E9" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F9" s="3">
         <v>8900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -825,32 +831,35 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E10" s="3">
         <v>27200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>14500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>27300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>27800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>13200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20600</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -872,8 +881,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,8 +903,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -938,8 +951,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -985,8 +1001,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1032,8 +1051,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1079,8 +1101,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1095,35 +1120,36 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E17" s="3">
         <v>11100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4700</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1142,32 +1168,35 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E18" s="3">
         <v>25200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>25100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>26200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>19300</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1189,8 +1218,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1208,8 +1240,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1231,8 +1264,8 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1255,8 +1288,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1302,8 +1338,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1349,35 +1388,38 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E23" s="3">
         <v>25200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>12300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>25100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>26200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>11500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>19300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-22900</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1396,8 +1438,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1443,8 +1488,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1490,35 +1538,38 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E26" s="3">
         <v>25200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>25100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>26200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>11500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>19300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-22900</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1537,35 +1588,38 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E27" s="3">
         <v>13200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1584,8 +1638,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1631,8 +1688,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1678,8 +1738,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1725,8 +1788,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1772,8 +1838,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1795,8 +1864,8 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1819,35 +1888,38 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E33" s="3">
         <v>13200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1866,8 +1938,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1913,35 +1988,38 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E35" s="3">
         <v>13200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1960,40 +2038,43 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2012,8 +2093,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2031,8 +2115,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2050,35 +2135,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E41" s="3">
         <v>22200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>18000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2183,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2144,17 +2233,20 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
         <v>6400</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2170,8 +2262,8 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2191,8 +2283,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2238,8 +2333,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2285,8 +2383,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2332,35 +2433,38 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8418000</v>
+      </c>
+      <c r="E47" s="3">
         <v>8264300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8504000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5941300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6142100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6146900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3857200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2714000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2379,31 +2483,34 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>62300</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2426,8 +2533,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2473,8 +2583,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2520,8 +2633,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2567,26 +2683,29 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E52" s="3">
         <v>2400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2602,8 +2721,8 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2614,8 +2733,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2661,35 +2783,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8513900</v>
+      </c>
+      <c r="E54" s="3">
         <v>8296400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8536100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5960200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6176300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6165700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3859300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2715300</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2708,8 +2833,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2727,8 +2855,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2746,35 +2875,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E57" s="3">
         <v>4000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,34 +2923,37 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>286300</v>
+      </c>
+      <c r="E58" s="3">
         <v>222500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>177600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>162200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>161500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>160200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>60100</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -2834,41 +2967,44 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>70800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2887,8 +3023,11 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2934,35 +3073,38 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7713000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7566200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7845600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5371500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5606800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5612900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3459400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2396300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2981,8 +3123,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3028,8 +3173,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3075,8 +3223,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3122,8 +3273,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3169,35 +3323,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8275900</v>
+      </c>
+      <c r="E66" s="3">
         <v>8066100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8391100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5825800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6048100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6041800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3773000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2632200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3216,8 +3373,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3235,8 +3395,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3282,8 +3443,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3329,8 +3493,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3350,7 +3517,7 @@
         <v>-8600</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>-8600</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3376,8 +3543,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3423,35 +3593,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E72" s="3">
         <v>20600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7500</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3470,8 +3643,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3517,8 +3693,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3564,8 +3743,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3611,35 +3793,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>246600</v>
+      </c>
+      <c r="E76" s="3">
         <v>238900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>153600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>142900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>136800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>132400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>86300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>83100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3658,8 +3843,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3705,40 +3893,43 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3757,35 +3948,38 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E81" s="3">
         <v>13200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3804,8 +3998,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3823,8 +4020,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3870,8 +4068,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3917,8 +4118,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3964,8 +4168,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4011,8 +4218,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4058,8 +4268,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4105,35 +4318,38 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E89" s="3">
         <v>14400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4152,8 +4368,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4171,8 +4390,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4218,8 +4438,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4265,8 +4488,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4312,35 +4538,38 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>321300</v>
+      </c>
+      <c r="E94" s="3">
         <v>151500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>71400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>41900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-88700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-52300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>30900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4359,8 +4588,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4378,8 +4610,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4387,26 +4620,26 @@
         <v>-4400</v>
       </c>
       <c r="E96" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F96" s="3">
         <v>-3100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-2100</v>
       </c>
       <c r="I96" s="3">
         <v>-2100</v>
       </c>
       <c r="J96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -4425,8 +4658,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4472,8 +4708,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4519,8 +4758,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4566,35 +4808,38 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-324800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-172000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>27800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-98500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-38200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>96600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>18100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4613,8 +4858,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4660,35 +4908,38 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-18000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>15500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>17000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4705,6 +4956,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NREF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NREF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
   <si>
     <t>NREF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -734,35 +735,38 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E8" s="3">
         <v>32400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>36300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>23400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>35100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>35700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>27000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -784,38 +788,41 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>9100</v>
+        <v>10000</v>
       </c>
       <c r="E9" s="3">
         <v>9100</v>
       </c>
       <c r="F9" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G9" s="3">
         <v>8900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4000</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -834,35 +841,38 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E10" s="3">
         <v>23300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>27200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>14500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>27300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>27800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>13200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>20600</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -884,8 +894,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -904,8 +917,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -954,8 +968,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1004,8 +1021,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1054,8 +1074,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1104,8 +1127,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1121,38 +1147,39 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E17" s="3">
         <v>11500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4700</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1171,35 +1198,38 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E18" s="3">
         <v>20900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>25200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>25100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>26200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>19300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1221,8 +1251,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1241,8 +1274,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1267,8 +1301,8 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1291,13 +1325,16 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>19700</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1341,8 +1378,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1391,38 +1431,41 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E23" s="3">
         <v>21000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>25200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>12300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>25100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>26200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>11500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>19300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-22900</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1441,8 +1484,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1491,8 +1537,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1541,38 +1590,41 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E26" s="3">
         <v>21000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>25200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>25100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>26200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>11500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>19300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-22900</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1591,38 +1643,41 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E27" s="3">
         <v>12400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>13200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1641,8 +1696,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1691,8 +1749,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1741,8 +1802,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1791,8 +1855,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1841,8 +1908,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1867,8 +1937,8 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1891,38 +1961,41 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E33" s="3">
         <v>12400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>13200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1941,8 +2014,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1991,38 +2067,41 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E35" s="3">
         <v>12400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>13200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2041,43 +2120,46 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2178,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2116,8 +2201,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2136,38 +2222,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E41" s="3">
         <v>26500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>30200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>18000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,8 +2273,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2236,20 +2326,23 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3">
         <v>6400</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2265,8 +2358,8 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2286,8 +2379,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2336,8 +2432,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2386,8 +2485,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2436,38 +2538,41 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7923000</v>
+      </c>
+      <c r="E47" s="3">
         <v>8418000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8264300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8504000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5941300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6142100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6146900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3857200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2714000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2486,17 +2591,20 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>61300</v>
+      </c>
+      <c r="E48" s="3">
         <v>62300</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2512,8 +2620,8 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2536,8 +2644,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2586,8 +2697,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2636,8 +2750,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2686,29 +2803,32 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>6800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2724,8 +2844,8 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2736,8 +2856,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2786,38 +2909,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8021500</v>
+      </c>
+      <c r="E54" s="3">
         <v>8513900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8296400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8536100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5960200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6176300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6165700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3859300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2715300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2836,8 +2962,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2856,8 +2985,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2876,38 +3006,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E57" s="3">
         <v>3900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2926,37 +3057,40 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>297000</v>
+      </c>
+      <c r="E58" s="3">
         <v>286300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>222500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>177600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>162200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>161500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>160200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>60100</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -2970,44 +3104,47 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E59" s="3">
         <v>4000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>70800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3026,8 +3163,11 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3076,38 +3216,41 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7201600</v>
+      </c>
+      <c r="E61" s="3">
         <v>7713000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7566200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7845600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5371500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5606800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5612900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3459400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2396300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3126,8 +3269,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3176,8 +3322,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3226,8 +3375,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3276,8 +3428,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3326,38 +3481,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7662200</v>
+      </c>
+      <c r="E66" s="3">
         <v>8275900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8066100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8391100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5825800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6048100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6041800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3773000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2632200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3376,8 +3534,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3396,8 +3557,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3446,8 +3608,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3496,8 +3661,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3520,7 +3688,7 @@
         <v>-8600</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>-8600</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3546,8 +3714,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3596,38 +3767,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E72" s="3">
         <v>28400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>20600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3646,8 +3820,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3696,8 +3873,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3746,8 +3926,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3796,38 +3979,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>367800</v>
+      </c>
+      <c r="E76" s="3">
         <v>246600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>238900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>153600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>142900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>136800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>132400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>86300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>83100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3846,8 +4032,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3896,43 +4085,46 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3951,38 +4143,41 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E81" s="3">
         <v>12400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>13200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4001,8 +4196,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4021,31 +4219,32 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4071,8 +4270,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4121,8 +4323,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4171,8 +4376,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4221,8 +4429,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4271,8 +4482,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4321,38 +4535,41 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E89" s="3">
         <v>12100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>14400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>13800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>11900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4371,8 +4588,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4391,8 +4611,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4441,8 +4662,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4491,8 +4715,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4541,38 +4768,41 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>211100</v>
+      </c>
+      <c r="E94" s="3">
         <v>321300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>151500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-26300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>71400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>41900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-88700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-52300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>30900</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4591,8 +4821,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4611,38 +4844,39 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4400</v>
+        <v>-7200</v>
       </c>
       <c r="E96" s="3">
         <v>-4400</v>
       </c>
       <c r="F96" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G96" s="3">
         <v>-3100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-2100</v>
       </c>
       <c r="J96" s="3">
         <v>-2100</v>
       </c>
       <c r="K96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -4661,8 +4895,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4711,8 +4948,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4761,8 +5001,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4811,38 +5054,41 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-247400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-324800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-172000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>27800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-98500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-38200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>96600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>18100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4861,8 +5107,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4911,38 +5160,41 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E102" s="3">
         <v>8700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-18000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>15500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>17000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4959,6 +5211,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NREF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NREF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
   <si>
     <t>NREF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,62 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -738,38 +739,41 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E8" s="3">
         <v>31300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>32400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>36300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>23400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>35100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>35700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>27000</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -791,41 +795,44 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E9" s="3">
         <v>10000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>9100</v>
       </c>
       <c r="F9" s="3">
         <v>9100</v>
       </c>
       <c r="G9" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H9" s="3">
         <v>8900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4000</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -844,38 +851,41 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E10" s="3">
         <v>21300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>23300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>27200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>27300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>27800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>13200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20600</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -897,8 +907,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,8 +931,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -971,8 +985,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1024,31 +1041,34 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1077,8 +1097,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1130,8 +1153,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1148,41 +1174,42 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E17" s="3">
         <v>12600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4700</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1201,38 +1228,41 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E18" s="3">
         <v>18700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>20900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>25200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>25100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>26200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>19300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1254,8 +1284,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1275,8 +1308,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1304,8 +1338,8 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1328,17 +1362,20 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E21" s="3">
         <v>19700</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1381,8 +1418,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,41 +1474,44 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E23" s="3">
         <v>18700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>25200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>12300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>25100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>26200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>11500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-22900</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1487,8 +1530,11 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1540,8 +1586,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1593,41 +1642,44 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E26" s="3">
         <v>18700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>21000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>25200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>25100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>26200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>11500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-22900</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1646,41 +1698,44 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E27" s="3">
         <v>12900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>12400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>13200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6400</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1699,8 +1754,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1752,8 +1810,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1805,8 +1866,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1858,8 +1922,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1911,8 +1978,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1940,8 +2010,8 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1964,41 +2034,44 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E33" s="3">
         <v>12900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>12400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>13200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6400</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2017,8 +2090,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2070,41 +2146,44 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E35" s="3">
         <v>12900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>12400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>13200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6400</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2123,46 +2202,49 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2181,8 +2263,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2202,8 +2287,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2223,41 +2309,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E41" s="3">
         <v>35200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>26500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>30200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2276,8 +2363,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2329,8 +2419,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2340,12 +2433,12 @@
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3">
         <v>6400</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2361,8 +2454,8 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2382,8 +2475,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2435,8 +2531,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2488,8 +2587,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2541,41 +2643,44 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7745500</v>
+      </c>
+      <c r="E47" s="3">
         <v>7923000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8418000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8264300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8504000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5941300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6142100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6146900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3857200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2714000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2594,20 +2699,23 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E48" s="3">
         <v>61300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>62300</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2623,8 +2731,8 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2647,8 +2755,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2700,8 +2811,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2753,8 +2867,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2806,32 +2923,35 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2847,8 +2967,8 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2859,8 +2979,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2912,41 +3035,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7861200</v>
+      </c>
+      <c r="E54" s="3">
         <v>8021500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8513900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8296400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8536100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5960200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6176300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6165700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3859300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2715300</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2965,8 +3091,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2986,8 +3115,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3007,41 +3137,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E57" s="3">
         <v>6500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3060,40 +3191,43 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>312400</v>
+      </c>
+      <c r="E58" s="3">
         <v>297000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>286300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>222500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>177600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>162200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>161500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>160200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>60100</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
@@ -3107,47 +3241,50 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E59" s="3">
         <v>7700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>70800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3166,8 +3303,11 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3219,41 +3359,44 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7019600</v>
+      </c>
+      <c r="E61" s="3">
         <v>7201600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7713000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7566200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7845600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5371500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5606800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5612900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3459400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2396300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3272,8 +3415,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3325,8 +3471,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3378,8 +3527,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3431,8 +3583,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3484,41 +3639,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7495000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7662200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8275900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8066100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8391100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5825800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6048100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6041800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3773000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2632200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3537,8 +3695,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3558,8 +3719,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3611,8 +3773,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3664,8 +3829,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3691,7 +3859,7 @@
         <v>-8600</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>-8600</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -3717,8 +3885,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3770,41 +3941,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E72" s="3">
         <v>33800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>28400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>20600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3823,8 +3997,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3876,8 +4053,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3929,8 +4109,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3982,41 +4165,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>374800</v>
+      </c>
+      <c r="E76" s="3">
         <v>367800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>246600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>238900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>153600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>142900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>136800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>132400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>86300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>83100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4035,8 +4221,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4088,46 +4277,49 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4146,41 +4338,44 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E81" s="3">
         <v>12900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>12400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>13200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6400</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4199,8 +4394,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4220,16 +4418,17 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>900</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
+      <c r="E83" s="3">
+        <v>900</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -4246,8 +4445,8 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4273,8 +4472,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4326,8 +4528,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4379,8 +4584,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4432,8 +4640,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4485,8 +4696,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4538,41 +4752,44 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E89" s="3">
         <v>38500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>12100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>14400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>13800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>11900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5100</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4591,8 +4808,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4612,8 +4832,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4665,8 +4886,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4718,8 +4942,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4771,41 +4998,44 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>498200</v>
+      </c>
+      <c r="E94" s="3">
         <v>211100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>321300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>151500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-26300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>71400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>41900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-88700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-52300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>30900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4824,8 +5054,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4845,41 +5078,42 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-7200</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-4400</v>
       </c>
       <c r="F96" s="3">
         <v>-4400</v>
       </c>
       <c r="G96" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="H96" s="3">
         <v>-3100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-2100</v>
       </c>
       <c r="K96" s="3">
         <v>-2100</v>
       </c>
       <c r="L96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -4898,8 +5132,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4951,8 +5188,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5004,8 +5244,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5057,41 +5300,44 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-492500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-247400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-324800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-172000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>27800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-98500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-38200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>96600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>18100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7700</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5110,8 +5356,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5163,41 +5412,44 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E102" s="3">
         <v>2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>15200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-18000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>15500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>17000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5214,6 +5466,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NREF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NREF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="92">
   <si>
     <t>NREF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -742,41 +743,44 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E8" s="3">
         <v>21200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>31300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>32400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>36300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>23400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>35100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>35700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>27000</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,44 +802,47 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E9" s="3">
         <v>10200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>9100</v>
       </c>
       <c r="G9" s="3">
         <v>9100</v>
       </c>
       <c r="H9" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I9" s="3">
         <v>8900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -854,41 +861,44 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E10" s="3">
         <v>11000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>21300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>27200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>27300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>27800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20600</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -910,8 +920,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -932,8 +945,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,8 +1002,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1044,16 +1061,19 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -1070,8 +1090,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1100,8 +1120,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1156,8 +1179,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1175,44 +1201,45 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E17" s="3">
         <v>12700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4700</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1231,41 +1258,44 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E18" s="3">
         <v>8500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>18700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>20900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>25200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>25100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>26200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>19300</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1287,8 +1317,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1309,8 +1342,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1341,8 +1375,8 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1365,20 +1399,23 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E21" s="3">
         <v>9400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>19700</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1421,8 +1458,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1477,44 +1517,47 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E23" s="3">
         <v>8500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>18700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>21000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>25200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>25100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>26200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>19300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-22900</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1533,8 +1576,11 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1589,8 +1635,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1645,44 +1694,47 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E26" s="3">
         <v>8500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>18700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>21000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>25200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>25100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>26200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>19300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-22900</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,44 +1753,47 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E27" s="3">
         <v>5000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>12900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>13200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6400</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1757,8 +1812,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1813,8 +1871,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1869,8 +1930,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1925,8 +1989,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1981,8 +2048,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2013,8 +2083,8 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -2037,44 +2107,47 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E33" s="3">
         <v>5000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>12900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>13200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6400</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2093,8 +2166,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2149,44 +2225,47 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E35" s="3">
         <v>5000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>12900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>13200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6400</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2205,49 +2284,52 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2266,8 +2348,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2288,8 +2373,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2310,44 +2396,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E41" s="3">
         <v>52700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>35200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>26500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>30000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>30200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,8 +2453,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2422,8 +2512,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2436,12 +2529,12 @@
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3">
         <v>6400</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2457,8 +2550,8 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2478,8 +2571,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2534,8 +2630,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2590,8 +2689,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2646,44 +2748,47 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8183900</v>
+      </c>
+      <c r="E47" s="3">
         <v>7745500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7923000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8418000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8264300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>8504000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>5941300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6142100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6146900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3857200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2714000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2702,23 +2807,26 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E48" s="3">
         <v>60400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>61300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>62300</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +2842,8 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2758,8 +2866,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2814,8 +2925,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2870,8 +2984,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2926,35 +3043,38 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E52" s="3">
         <v>1300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2970,8 +3090,8 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -2982,8 +3102,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3038,44 +3161,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8275900</v>
+      </c>
+      <c r="E54" s="3">
         <v>7861200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8021500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8513900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8296400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8536100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5960200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6176300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6165700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3859300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2715300</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3220,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3116,8 +3245,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3138,44 +3268,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E57" s="3">
         <v>8300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3194,43 +3325,46 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>351000</v>
+      </c>
+      <c r="E58" s="3">
         <v>312400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>297000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>286300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>222500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>177600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>162200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>161500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>160200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>60100</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
@@ -3244,50 +3378,53 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E59" s="3">
         <v>6400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>70800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3306,8 +3443,11 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3362,44 +3502,47 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7407500</v>
+      </c>
+      <c r="E61" s="3">
         <v>7019600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7201600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7713000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7566200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7845600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5371500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5606800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5612900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3459400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2396300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3418,8 +3561,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3474,8 +3620,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3530,8 +3679,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3586,8 +3738,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3642,44 +3797,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7924100</v>
+      </c>
+      <c r="E66" s="3">
         <v>7495000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7662200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8275900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8066100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8391100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5825800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6048100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6041800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3773000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2632200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3698,8 +3856,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3720,8 +3881,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3776,8 +3938,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3832,8 +3997,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3862,7 +4030,7 @@
         <v>-8600</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>-8600</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3888,8 +4056,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3944,44 +4115,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E72" s="3">
         <v>31000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>33800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>28400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>20600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4000,8 +4174,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4056,8 +4233,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4112,8 +4292,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4168,44 +4351,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>360400</v>
+      </c>
+      <c r="E76" s="3">
         <v>374800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>367800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>246600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>238900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>153600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>142900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>136800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>132400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>86300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>83100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4224,8 +4410,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4280,49 +4469,52 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4341,44 +4533,47 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E81" s="3">
         <v>5000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>12900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>13200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6400</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4397,8 +4592,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4419,19 +4617,20 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>900</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="3">
+        <v>900</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -4448,8 +4647,8 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4475,8 +4674,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4531,8 +4733,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4587,8 +4792,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4643,8 +4851,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4699,8 +4910,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4755,44 +4969,47 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E89" s="3">
         <v>12900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>38500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>14400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>13800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5100</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4811,8 +5028,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4833,8 +5053,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4889,8 +5110,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4945,8 +5169,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5001,44 +5228,47 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>141600</v>
+      </c>
+      <c r="E94" s="3">
         <v>498200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>211100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>321300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>151500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-26300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>71400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>41900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-88700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-52300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>30900</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5057,8 +5287,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5079,8 +5312,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5088,35 +5322,35 @@
         <v>-7500</v>
       </c>
       <c r="E96" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F96" s="3">
         <v>-7200</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-4400</v>
       </c>
       <c r="G96" s="3">
         <v>-4400</v>
       </c>
       <c r="H96" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I96" s="3">
         <v>-3100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-2100</v>
       </c>
       <c r="L96" s="3">
         <v>-2100</v>
       </c>
       <c r="M96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5135,8 +5369,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5191,8 +5428,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5247,8 +5487,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5303,44 +5546,47 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-180300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-492500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-247400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-324800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-172000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>27800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-98500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-38200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>96600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>18100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7700</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5359,8 +5605,11 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5415,44 +5664,47 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="E102" s="3">
         <v>18500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>15200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-18000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>15500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>17000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5469,6 +5721,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NREF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NREF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
   <si>
     <t>NREF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -746,47 +747,53 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F8" s="3">
         <v>5600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>21200</v>
       </c>
-      <c r="F8" s="3">
-        <v>31300</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>33100</v>
+      </c>
+      <c r="I8" s="3">
         <v>32400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>36300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>23400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>35100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>35700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>20500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>27000</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
@@ -805,50 +812,56 @@
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F9" s="3">
         <v>11800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>10200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>10000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>9100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>9100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>8900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>7800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>7900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>7300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>6400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4000</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
@@ -864,47 +877,53 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F10" s="3">
         <v>-6200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>11000</v>
       </c>
-      <c r="F10" s="3">
-        <v>21300</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>23100</v>
+      </c>
+      <c r="I10" s="3">
         <v>23300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>27200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>14500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>27300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>27800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>13200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>20600</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -923,8 +942,14 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -946,8 +971,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1005,8 +1032,14 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1064,22 +1097,28 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -1093,11 +1132,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1123,8 +1162,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1182,8 +1227,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1202,50 +1253,52 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F17" s="3">
         <v>14300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>12700</v>
       </c>
-      <c r="F17" s="3">
-        <v>12600</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I17" s="3">
         <v>11500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>11100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>11200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>10000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>9500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>9000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4700</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1261,47 +1314,53 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-8700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>8500</v>
       </c>
-      <c r="F18" s="3">
-        <v>18700</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>18100</v>
+      </c>
+      <c r="I18" s="3">
         <v>20900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>25200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>12200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>25100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>26200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>11500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>19300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1320,8 +1379,14 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1343,8 +1408,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1378,11 +1445,11 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1402,25 +1469,31 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-8100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>9400</v>
       </c>
-      <c r="F21" s="3">
-        <v>19700</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+      <c r="H21" s="3">
+        <v>19000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1461,8 +1534,14 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1520,50 +1599,56 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-8700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>8500</v>
       </c>
-      <c r="F23" s="3">
-        <v>18700</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>18100</v>
+      </c>
+      <c r="I23" s="3">
         <v>21000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>25200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>12300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>25100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>26200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>11500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>19300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-22900</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1579,8 +1664,14 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1638,8 +1729,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1697,50 +1794,56 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-8700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>8500</v>
       </c>
-      <c r="F26" s="3">
-        <v>18700</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>18100</v>
+      </c>
+      <c r="I26" s="3">
         <v>21000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>25200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>12300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>25100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>26200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>11500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>19300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-22900</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1756,50 +1859,56 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-8100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>5000</v>
       </c>
-      <c r="F27" s="3">
-        <v>12900</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>12400</v>
+      </c>
+      <c r="J27" s="3">
         <v>13200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>5500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>8400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>9300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>5300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-6400</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1815,8 +1924,14 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1874,8 +1989,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1933,8 +2054,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1992,8 +2119,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2051,8 +2184,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2086,11 +2225,11 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -2110,50 +2249,56 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-8100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>5000</v>
       </c>
-      <c r="F33" s="3">
-        <v>12900</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>12400</v>
+      </c>
+      <c r="J33" s="3">
         <v>13200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>5500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>8400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>9300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>5300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-6400</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2169,8 +2314,14 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2228,50 +2379,56 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-8100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>5000</v>
       </c>
-      <c r="F35" s="3">
-        <v>12900</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>12400</v>
+      </c>
+      <c r="J35" s="3">
         <v>13200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>5500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>8400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>9300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>5300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-6400</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,55 +2444,61 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2351,8 +2514,14 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2374,8 +2543,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2397,50 +2568,52 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F41" s="3">
         <v>22100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>52700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>35200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>26500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>22200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>30000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>14900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>30200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>18000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2456,8 +2629,14 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2515,8 +2694,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2532,15 +2717,15 @@
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3">
         <v>6400</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2553,11 +2738,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2574,8 +2759,14 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2633,8 +2824,14 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2692,8 +2889,14 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2751,50 +2954,56 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7942100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>7886400</v>
+      </c>
+      <c r="F47" s="3">
         <v>8183900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>7745500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>7923000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>8418000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>8264300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>8504000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>5941300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>6142100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>6146900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>3857200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>2714000</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2810,29 +3019,35 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>245200</v>
+      </c>
+      <c r="F48" s="3">
         <v>59900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>60400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>61300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>62300</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2845,11 +3060,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2869,8 +3084,14 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2928,8 +3149,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2987,8 +3214,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3046,41 +3279,47 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>300</v>
+      </c>
+      <c r="F52" s="3">
         <v>8400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>6800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,11 +3332,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3105,8 +3344,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3164,50 +3409,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8042600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8154100</v>
+      </c>
+      <c r="F54" s="3">
         <v>8275900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7861200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8021500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8513900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8296400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>8536100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5960200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6176300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6165700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3859300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2715300</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,8 +3474,14 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3246,8 +3503,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3269,50 +3528,52 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F57" s="3">
         <v>6100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>8300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>6500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>4000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3328,49 +3589,55 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>350400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>331000</v>
+      </c>
+      <c r="F58" s="3">
         <v>351000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>312400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>297000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>286300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>222500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>177600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>162200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>161500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>160200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>60100</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
@@ -3381,56 +3648,62 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F59" s="3">
         <v>16200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>7700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>7200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>70800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3446,8 +3719,14 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3505,50 +3784,56 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7203600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>7263900</v>
+      </c>
+      <c r="F61" s="3">
         <v>7407500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>7019600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>7201600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>7713000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>7566200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>7845600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5371500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5606800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5612900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3459400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2396300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3564,8 +3849,14 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3623,8 +3914,14 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3682,8 +3979,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3741,8 +4044,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3800,50 +4109,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7665400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7770200</v>
+      </c>
+      <c r="F66" s="3">
         <v>7924100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>7495000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7662200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8275900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8066100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8391100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5825800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6048100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6041800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3773000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2632200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3859,8 +4174,14 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3882,8 +4203,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3941,8 +4264,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4000,8 +4329,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4033,10 +4368,10 @@
         <v>-8600</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>-8600</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>-8600</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -4059,8 +4394,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4118,50 +4459,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F72" s="3">
         <v>15200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>31000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>33800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>28400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>20600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>12000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>9200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>3500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-3700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-7500</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4177,8 +4524,14 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4236,8 +4589,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4295,8 +4654,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4354,50 +4719,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>385700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>392500</v>
+      </c>
+      <c r="F76" s="3">
         <v>360400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>374800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>367800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>246600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>238900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>153600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>142900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>136800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>132400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>86300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>83100</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4413,8 +4784,14 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4472,55 +4849,61 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4536,50 +4919,56 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-8100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>5000</v>
       </c>
-      <c r="F81" s="3">
-        <v>12900</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>12400</v>
+      </c>
+      <c r="J81" s="3">
         <v>13200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>5500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>8400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>9300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>5300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-6400</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4595,8 +4984,14 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4618,8 +5013,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4627,17 +5024,17 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
+        <v>500</v>
+      </c>
+      <c r="F83" s="3">
+        <v>500</v>
+      </c>
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4650,11 +5047,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4677,8 +5074,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4736,8 +5139,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4795,8 +5204,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4854,8 +5269,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4913,8 +5334,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4972,50 +5399,56 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F89" s="3">
         <v>11200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>12900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>38500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>12100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>14400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>13800</v>
-      </c>
-      <c r="J89" s="3">
-        <v>9100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>11900</v>
       </c>
       <c r="L89" s="3">
         <v>9100</v>
       </c>
       <c r="M89" s="3">
+        <v>11900</v>
+      </c>
+      <c r="N89" s="3">
+        <v>9100</v>
+      </c>
+      <c r="O89" s="3">
         <v>6800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>5100</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5031,8 +5464,14 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5054,8 +5493,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5066,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-184600</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5113,8 +5554,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5172,8 +5619,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5231,50 +5684,56 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>66700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>99700</v>
+      </c>
+      <c r="F94" s="3">
         <v>141600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>498200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>211100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>321300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>151500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-26300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>71400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>41900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-88700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-52300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>30900</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5290,8 +5749,14 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5313,50 +5778,52 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-7500</v>
+        <v>-11800</v>
       </c>
       <c r="E96" s="3">
         <v>-7500</v>
       </c>
       <c r="F96" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="H96" s="3">
         <v>-7200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-4400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-4400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-3100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-2400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-2000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-2100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-2100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-1200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -5372,8 +5839,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5431,8 +5904,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5490,8 +5969,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5549,50 +6034,56 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-61700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-180300</v>
       </c>
-      <c r="E100" s="3">
-        <v>-492500</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-247400</v>
-      </c>
       <c r="G100" s="3">
+        <v>-637800</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-102100</v>
+      </c>
+      <c r="I100" s="3">
         <v>-324800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-172000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>27800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-98500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-38200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>96600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>18100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-7700</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5608,8 +6099,14 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5667,50 +6164,56 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-27500</v>
       </c>
-      <c r="E102" s="3">
-        <v>18500</v>
-      </c>
-      <c r="F102" s="3">
-        <v>2200</v>
-      </c>
       <c r="G102" s="3">
+        <v>11700</v>
+      </c>
+      <c r="H102" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I102" s="3">
         <v>8700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-6100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>15200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-18000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>15500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>17000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5724,6 +6227,12 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NREF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NREF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="92">
   <si>
     <t>NREF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,77 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -753,50 +754,53 @@
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E8" s="3">
         <v>27100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>22700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5600</v>
       </c>
-      <c r="G8" s="3">
-        <v>21200</v>
-      </c>
       <c r="H8" s="3">
+        <v>23800</v>
+      </c>
+      <c r="I8" s="3">
         <v>33100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>32400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>36300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>23400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>35100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>35700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>27000</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
@@ -818,53 +822,56 @@
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E9" s="3">
         <v>13300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>9100</v>
       </c>
       <c r="J9" s="3">
         <v>9100</v>
       </c>
       <c r="K9" s="3">
+        <v>9100</v>
+      </c>
+      <c r="L9" s="3">
         <v>8900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4000</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
@@ -883,50 +890,53 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E10" s="3">
         <v>13800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-6200</v>
       </c>
-      <c r="G10" s="3">
-        <v>11000</v>
-      </c>
       <c r="H10" s="3">
+        <v>13600</v>
+      </c>
+      <c r="I10" s="3">
         <v>23100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>23300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>27200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>27300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>27800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>13200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>20600</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
@@ -948,8 +958,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -973,8 +986,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1038,8 +1052,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1103,16 +1120,19 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1120,8 +1140,8 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -1138,8 +1158,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1168,8 +1188,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1233,8 +1256,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1255,53 +1281,54 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E17" s="3">
         <v>17700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>27000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14300</v>
       </c>
-      <c r="G17" s="3">
-        <v>12700</v>
-      </c>
       <c r="H17" s="3">
+        <v>16300</v>
+      </c>
+      <c r="I17" s="3">
         <v>15000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4700</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1320,50 +1347,53 @@
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E18" s="3">
         <v>9400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8700</v>
       </c>
-      <c r="G18" s="3">
-        <v>8500</v>
-      </c>
       <c r="H18" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I18" s="3">
         <v>18100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>20900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>25200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>25100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>11500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>19300</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1385,8 +1415,11 @@
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1410,8 +1443,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1451,8 +1485,8 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1475,29 +1509,32 @@
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E21" s="3">
         <v>9900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-8100</v>
       </c>
-      <c r="G21" s="3">
-        <v>9400</v>
-      </c>
       <c r="H21" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I21" s="3">
         <v>19000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1540,8 +1577,11 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1605,53 +1645,56 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E23" s="3">
         <v>9400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8700</v>
       </c>
-      <c r="G23" s="3">
-        <v>8500</v>
-      </c>
       <c r="H23" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I23" s="3">
         <v>18100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>21000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>25200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>25100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>26200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>11500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>19300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-22900</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1670,8 +1713,11 @@
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1735,8 +1781,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1800,53 +1849,56 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E26" s="3">
         <v>9400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8700</v>
       </c>
-      <c r="G26" s="3">
-        <v>8500</v>
-      </c>
       <c r="H26" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I26" s="3">
         <v>18100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>21000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>25200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>25100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>26200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>19300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-22900</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1865,53 +1917,56 @@
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E27" s="3">
         <v>6600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8100</v>
       </c>
-      <c r="G27" s="3">
-        <v>5000</v>
-      </c>
       <c r="H27" s="3">
-        <v>12400</v>
+        <v>3900</v>
       </c>
       <c r="I27" s="3">
         <v>12400</v>
       </c>
       <c r="J27" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K27" s="3">
         <v>13200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1930,8 +1985,11 @@
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1995,8 +2053,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2060,8 +2121,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2125,8 +2189,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2190,8 +2257,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2231,8 +2301,8 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -2255,53 +2325,56 @@
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E33" s="3">
         <v>6600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8100</v>
       </c>
-      <c r="G33" s="3">
-        <v>5000</v>
-      </c>
       <c r="H33" s="3">
-        <v>12400</v>
+        <v>3900</v>
       </c>
       <c r="I33" s="3">
         <v>12400</v>
       </c>
       <c r="J33" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K33" s="3">
         <v>13200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2320,8 +2393,11 @@
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2385,53 +2461,56 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E35" s="3">
         <v>6600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8100</v>
       </c>
-      <c r="G35" s="3">
-        <v>5000</v>
-      </c>
       <c r="H35" s="3">
-        <v>12400</v>
+        <v>3900</v>
       </c>
       <c r="I35" s="3">
         <v>12400</v>
       </c>
       <c r="J35" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K35" s="3">
         <v>13200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2450,58 +2529,61 @@
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2520,8 +2602,11 @@
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2545,8 +2630,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2570,53 +2656,54 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E41" s="3">
         <v>38800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>52700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>35200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>26500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>30000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>30200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>18000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2635,8 +2722,11 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2700,8 +2790,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2723,12 +2816,12 @@
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="3">
         <v>6400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2744,8 +2837,8 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2765,8 +2858,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2830,8 +2926,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2895,8 +2994,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2960,53 +3062,56 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7521200</v>
+      </c>
+      <c r="E47" s="3">
         <v>7942100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7886400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8183900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7745500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7923000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>8418000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>8264300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8504000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5941300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6142100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6146900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3857200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2714000</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3025,32 +3130,35 @@
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E48" s="3">
         <v>59100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>245200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>59900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>60400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>61300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>62300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3066,8 +3174,8 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -3090,8 +3198,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3155,8 +3266,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3220,8 +3334,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3285,44 +3402,47 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3338,8 +3458,8 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3350,8 +3470,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3415,53 +3538,56 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7603200</v>
+      </c>
+      <c r="E54" s="3">
         <v>8042600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8154100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8275900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7861200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8021500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8513900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8296400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8536100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5960200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6176300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6165700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3859300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2715300</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3480,8 +3606,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3505,8 +3634,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3530,53 +3660,54 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E57" s="3">
         <v>5400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3595,52 +3726,55 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>333200</v>
+      </c>
+      <c r="E58" s="3">
         <v>350400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>331000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>351000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>312400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>297000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>286300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>222500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>177600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>162200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>161500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>160200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>60100</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
@@ -3654,59 +3788,62 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E59" s="3">
         <v>10200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>70800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3725,8 +3862,11 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3790,53 +3930,56 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6789100</v>
+      </c>
+      <c r="E61" s="3">
         <v>7203600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7263900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7407500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7019600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7201600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7713000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7566200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7845600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5371500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5606800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5612900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3459400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2396300</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3855,8 +3998,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3920,8 +4066,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3985,8 +4134,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4050,8 +4202,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4115,53 +4270,56 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7231700</v>
+      </c>
+      <c r="E66" s="3">
         <v>7665400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7770200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7924100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7495000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7662200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8275900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8066100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8391100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5825800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6048100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6041800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3773000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2632200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4180,8 +4338,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4205,8 +4366,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4270,8 +4432,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4335,8 +4500,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4374,7 +4542,7 @@
         <v>-8600</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>-8600</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -4400,8 +4568,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4465,53 +4636,56 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>31000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>33800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>28400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>20600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4530,8 +4704,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4595,8 +4772,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4660,8 +4840,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4725,53 +4908,56 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>380100</v>
+      </c>
+      <c r="E76" s="3">
         <v>385700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>392500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>360400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>374800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>367800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>246600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>238900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>153600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>142900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>136800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>132400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>86300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>83100</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4790,8 +4976,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4855,58 +5044,61 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4925,53 +5117,56 @@
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E81" s="3">
         <v>6600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8100</v>
       </c>
-      <c r="G81" s="3">
-        <v>5000</v>
-      </c>
       <c r="H81" s="3">
-        <v>12400</v>
+        <v>3900</v>
       </c>
       <c r="I81" s="3">
         <v>12400</v>
       </c>
       <c r="J81" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K81" s="3">
         <v>13200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4990,8 +5185,11 @@
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5015,8 +5213,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5030,13 +5229,13 @@
         <v>500</v>
       </c>
       <c r="G83" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>900</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -5053,8 +5252,8 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -5080,8 +5279,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5145,8 +5347,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5210,8 +5415,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5275,8 +5483,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5340,8 +5551,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5405,53 +5619,56 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E89" s="3">
         <v>15000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>11200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>38500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>12100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>14400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>13800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5100</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5470,8 +5687,11 @@
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5495,8 +5715,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5507,14 +5728,14 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-184600</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -5560,8 +5781,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5625,8 +5849,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5690,53 +5917,56 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>364600</v>
+      </c>
+      <c r="E94" s="3">
         <v>66700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>99700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>141600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>498200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>211100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>321300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>151500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>71400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>41900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-88700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-52300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>30900</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5755,8 +5985,11 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5780,8 +6013,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5789,7 +6023,7 @@
         <v>-11800</v>
       </c>
       <c r="E96" s="3">
-        <v>-7500</v>
+        <v>-11800</v>
       </c>
       <c r="F96" s="3">
         <v>-7500</v>
@@ -5798,35 +6032,35 @@
         <v>-7500</v>
       </c>
       <c r="H96" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="I96" s="3">
         <v>-7200</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-4400</v>
       </c>
       <c r="J96" s="3">
         <v>-4400</v>
       </c>
       <c r="K96" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="L96" s="3">
         <v>-3100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-2100</v>
       </c>
       <c r="O96" s="3">
         <v>-2100</v>
       </c>
       <c r="P96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -5845,8 +6079,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5910,8 +6147,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5975,8 +6215,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6040,53 +6283,56 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-390900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-61700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-109000</v>
       </c>
-      <c r="F100" s="3">
-        <v>-180300</v>
-      </c>
       <c r="G100" s="3">
-        <v>-637800</v>
+        <v>-325800</v>
       </c>
       <c r="H100" s="3">
+        <v>-492300</v>
+      </c>
+      <c r="I100" s="3">
         <v>-102100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-324800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-172000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>27800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-98500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-38200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>96600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>18100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6105,8 +6351,11 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6170,53 +6419,56 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E102" s="3">
         <v>20000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6100</v>
       </c>
-      <c r="F102" s="3">
-        <v>-27500</v>
-      </c>
       <c r="G102" s="3">
-        <v>11700</v>
+        <v>-34600</v>
       </c>
       <c r="H102" s="3">
+        <v>18800</v>
+      </c>
+      <c r="I102" s="3">
         <v>9000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>15200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-18000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>15500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>17000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6233,6 +6485,9 @@
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NREF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NREF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="92">
   <si>
     <t>NREF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,81 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -757,53 +758,56 @@
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E8" s="3">
         <v>26700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>27100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>22700</v>
       </c>
-      <c r="G8" s="3">
-        <v>5600</v>
-      </c>
       <c r="H8" s="3">
+        <v>7400</v>
+      </c>
+      <c r="I8" s="3">
         <v>23800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>33100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>32400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>36300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>23400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>35100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>35700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>27000</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
@@ -825,8 +829,11 @@
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -834,47 +841,47 @@
         <v>14200</v>
       </c>
       <c r="E9" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F9" s="3">
         <v>13300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>9100</v>
       </c>
       <c r="K9" s="3">
         <v>9100</v>
       </c>
       <c r="L9" s="3">
+        <v>9100</v>
+      </c>
+      <c r="M9" s="3">
         <v>8900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4000</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
@@ -893,53 +900,56 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E10" s="3">
         <v>12500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>13800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10000</v>
       </c>
-      <c r="G10" s="3">
-        <v>-6200</v>
-      </c>
       <c r="H10" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I10" s="3">
         <v>13600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>23100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>23300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>27200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>27300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>27800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>13200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>20600</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
@@ -961,8 +971,11 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -987,8 +1000,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1055,8 +1069,11 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1123,19 +1140,22 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1143,8 +1163,8 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -1161,8 +1181,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1191,8 +1211,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1259,8 +1282,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1282,56 +1308,57 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E17" s="3">
         <v>18200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>27000</v>
       </c>
-      <c r="G17" s="3">
-        <v>14300</v>
-      </c>
       <c r="H17" s="3">
+        <v>16700</v>
+      </c>
+      <c r="I17" s="3">
         <v>16300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4700</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1350,53 +1377,56 @@
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E18" s="3">
         <v>8500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-8700</v>
-      </c>
       <c r="H18" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I18" s="3">
         <v>7500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>18100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>20900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>25200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>25100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>26200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>11500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>19300</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1418,8 +1448,11 @@
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1444,8 +1477,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1488,8 +1522,8 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
@@ -1512,32 +1546,35 @@
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E21" s="3">
         <v>9000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3800</v>
       </c>
-      <c r="G21" s="3">
-        <v>-8100</v>
-      </c>
       <c r="H21" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="I21" s="3">
         <v>8400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>19000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1580,8 +1617,11 @@
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1648,56 +1688,59 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E23" s="3">
         <v>8500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-8700</v>
-      </c>
       <c r="H23" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="I23" s="3">
         <v>7500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>18100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>21000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>25200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>25100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>26200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>11500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>19300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-22900</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1759,11 @@
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1784,8 +1830,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1852,56 +1901,59 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E26" s="3">
         <v>8500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-8700</v>
-      </c>
       <c r="H26" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="I26" s="3">
         <v>7500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>18100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>21000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>25200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>25100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>26200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>19300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-22900</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,56 +1972,59 @@
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E27" s="3">
         <v>5700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6700</v>
       </c>
-      <c r="G27" s="3">
-        <v>-8100</v>
-      </c>
       <c r="H27" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I27" s="3">
         <v>3900</v>
-      </c>
-      <c r="I27" s="3">
-        <v>12400</v>
       </c>
       <c r="J27" s="3">
         <v>12400</v>
       </c>
       <c r="K27" s="3">
+        <v>12400</v>
+      </c>
+      <c r="L27" s="3">
         <v>13200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6400</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1988,8 +2043,11 @@
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2056,8 +2114,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2124,8 +2185,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2192,8 +2256,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2260,8 +2327,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2304,8 +2374,8 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
@@ -2328,56 +2398,59 @@
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E33" s="3">
         <v>5700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6700</v>
       </c>
-      <c r="G33" s="3">
-        <v>-8100</v>
-      </c>
       <c r="H33" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I33" s="3">
         <v>3900</v>
-      </c>
-      <c r="I33" s="3">
-        <v>12400</v>
       </c>
       <c r="J33" s="3">
         <v>12400</v>
       </c>
       <c r="K33" s="3">
+        <v>12400</v>
+      </c>
+      <c r="L33" s="3">
         <v>13200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6400</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2396,8 +2469,11 @@
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2464,56 +2540,59 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E35" s="3">
         <v>5700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6700</v>
       </c>
-      <c r="G35" s="3">
-        <v>-8100</v>
-      </c>
       <c r="H35" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I35" s="3">
         <v>3900</v>
-      </c>
-      <c r="I35" s="3">
-        <v>12400</v>
       </c>
       <c r="J35" s="3">
         <v>12400</v>
       </c>
       <c r="K35" s="3">
+        <v>12400</v>
+      </c>
+      <c r="L35" s="3">
         <v>13200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6400</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2532,61 +2611,64 @@
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2605,8 +2687,11 @@
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2631,8 +2716,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2657,56 +2743,57 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E41" s="3">
         <v>19700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>38800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>52700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>35200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>26500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>30000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>30200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>18000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2725,8 +2812,11 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2793,38 +2883,41 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3">
         <v>6400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,8 +2933,8 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2861,8 +2954,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2929,8 +3025,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2997,8 +3096,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3065,56 +3167,59 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6813600</v>
+      </c>
+      <c r="E47" s="3">
         <v>7521200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7942100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7886400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8183900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7745500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7923000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>8418000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8264300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8504000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5941300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6142100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6146900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3857200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2714000</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3133,8 +3238,11 @@
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3142,26 +3250,26 @@
         <v>58600</v>
       </c>
       <c r="E48" s="3">
+        <v>58600</v>
+      </c>
+      <c r="F48" s="3">
         <v>59100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>245200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>59900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>60400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>61300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>62300</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3177,8 +3285,8 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3201,8 +3309,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3269,8 +3380,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3337,8 +3451,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3405,8 +3522,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3414,38 +3534,38 @@
         <v>1900</v>
       </c>
       <c r="E52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F52" s="3">
         <v>1500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3200</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3461,8 +3581,8 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3473,8 +3593,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3541,56 +3664,59 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6886400</v>
+      </c>
+      <c r="E54" s="3">
         <v>7603200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8042600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8154100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8275900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7861200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8021500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8513900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8296400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8536100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5960200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6176300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6165700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3859300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2715300</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3609,8 +3735,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3635,8 +3764,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3661,56 +3791,57 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E57" s="3">
         <v>8400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3729,55 +3860,58 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>298000</v>
+      </c>
+      <c r="E58" s="3">
         <v>333200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>350400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>331000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>351000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>312400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>297000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>286300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>222500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>177600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>162200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>161500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>160200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>60100</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
@@ -3791,62 +3925,65 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E59" s="3">
         <v>6400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>70800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3865,8 +4002,11 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3933,56 +4073,59 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6140700</v>
+      </c>
+      <c r="E61" s="3">
         <v>6789100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7203600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7263900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7407500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7019600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7201600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7713000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7566200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7845600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5371500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5606800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5612900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3459400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2396300</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4001,8 +4144,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4069,8 +4215,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4137,8 +4286,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4205,8 +4357,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4273,56 +4428,59 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6541400</v>
+      </c>
+      <c r="E66" s="3">
         <v>7231700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7665400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7770200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7924100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7495000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7662200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8275900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8066100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8391100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5825800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6048100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6041800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3773000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2632200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4341,8 +4499,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4367,8 +4528,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4435,8 +4597,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4503,8 +4668,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4545,7 +4713,7 @@
         <v>-8600</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>-8600</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -4571,8 +4739,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4639,56 +4810,59 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>31000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>33800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>28400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7500</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4707,8 +4881,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4775,8 +4952,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4843,8 +5023,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4911,56 +5094,59 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>353500</v>
+      </c>
+      <c r="E76" s="3">
         <v>380100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>385700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>392500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>360400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>374800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>367800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>246600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>238900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>153600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>142900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>136800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>132400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>86300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>83100</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4979,8 +5165,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5047,61 +5236,64 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5120,56 +5312,59 @@
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E81" s="3">
         <v>5700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6700</v>
       </c>
-      <c r="G81" s="3">
-        <v>-8100</v>
-      </c>
       <c r="H81" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I81" s="3">
         <v>3900</v>
-      </c>
-      <c r="I81" s="3">
-        <v>12400</v>
       </c>
       <c r="J81" s="3">
         <v>12400</v>
       </c>
       <c r="K81" s="3">
+        <v>12400</v>
+      </c>
+      <c r="L81" s="3">
         <v>13200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6400</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5188,8 +5383,11 @@
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5214,8 +5412,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5232,13 +5431,13 @@
         <v>500</v>
       </c>
       <c r="H83" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="I83" s="3">
         <v>900</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -5255,8 +5454,8 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -5282,8 +5481,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5350,8 +5552,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5418,8 +5623,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5486,8 +5694,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5554,8 +5765,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5622,56 +5836,59 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E89" s="3">
         <v>7500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>15000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>12900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>38500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>13800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5100</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5690,8 +5907,11 @@
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5716,8 +5936,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5734,14 +5955,14 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-184600</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -5784,8 +6005,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5852,8 +6076,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5920,56 +6147,59 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>208100</v>
+      </c>
+      <c r="E94" s="3">
         <v>364600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>66700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>99700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>141600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>498200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>211100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>321300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>151500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-26300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>71400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>41900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-88700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-52300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>30900</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5988,8 +6218,11 @@
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6014,8 +6247,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6026,7 +6260,7 @@
         <v>-11800</v>
       </c>
       <c r="F96" s="3">
-        <v>-7500</v>
+        <v>-11800</v>
       </c>
       <c r="G96" s="3">
         <v>-7500</v>
@@ -6035,35 +6269,35 @@
         <v>-7500</v>
       </c>
       <c r="I96" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="J96" s="3">
         <v>-7200</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-4400</v>
       </c>
       <c r="K96" s="3">
         <v>-4400</v>
       </c>
       <c r="L96" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="M96" s="3">
         <v>-3100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-2100</v>
       </c>
       <c r="P96" s="3">
         <v>-2100</v>
       </c>
       <c r="Q96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -6082,8 +6316,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6150,8 +6387,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6218,8 +6458,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6286,56 +6529,59 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-222700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-390900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-61700</v>
       </c>
-      <c r="F100" s="3">
-        <v>-109000</v>
-      </c>
       <c r="G100" s="3">
-        <v>-325800</v>
+        <v>-255200</v>
       </c>
       <c r="H100" s="3">
+        <v>-179600</v>
+      </c>
+      <c r="I100" s="3">
         <v>-492300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-102100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-324800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-172000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>27800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-98500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-38200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>96600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>18100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7700</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6354,8 +6600,11 @@
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6422,56 +6671,59 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>20000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="I102" s="3">
+        <v>18800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K102" s="3">
+        <v>8700</v>
+      </c>
+      <c r="L102" s="3">
         <v>-6100</v>
       </c>
-      <c r="G102" s="3">
-        <v>-34600</v>
-      </c>
-      <c r="H102" s="3">
-        <v>18800</v>
-      </c>
-      <c r="I102" s="3">
-        <v>9000</v>
-      </c>
-      <c r="J102" s="3">
-        <v>8700</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>15200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-18000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>15500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>17000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6488,6 +6740,9 @@
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
